--- a/publique/upload/ericson.xlsx
+++ b/publique/upload/ericson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,57 +19,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
-  <si>
-    <t>Acknowledger</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Critical</t>
   </si>
   <si>
-    <t>FES_EB2,TZ1040_O</t>
-  </si>
-  <si>
-    <t>BTS DOWN</t>
-  </si>
-  <si>
-    <t>FES_EB1,IM1009_O</t>
-  </si>
-  <si>
-    <t>FES_EB2,OU1014_O</t>
-  </si>
-  <si>
-    <t>FES_EB2,TI1002_O</t>
-  </si>
-  <si>
-    <t>FES_EB2,OU1012_O</t>
-  </si>
-  <si>
-    <t>NAD_EB1,TZ1015_O</t>
-  </si>
-  <si>
-    <t>OUJ_EB1,ZA1016_O</t>
-  </si>
-  <si>
-    <t>MEK_EB1,IM1003_O</t>
-  </si>
-  <si>
-    <t>NAD_EB1,MS1009_O</t>
-  </si>
-  <si>
-    <t>FES_EB2,KE1005_O</t>
-  </si>
-  <si>
-    <t>NAD_EB1,KA1006</t>
-  </si>
-  <si>
-    <t>Element  SpecificProblem</t>
-  </si>
-  <si>
-    <t>Perceived</t>
-  </si>
-  <si>
-    <t>Severity  EventTime  Managed</t>
+    <t>ND1031</t>
+  </si>
+  <si>
+    <t>TA1017</t>
+  </si>
+  <si>
+    <t>MY1010</t>
+  </si>
+  <si>
+    <t>MY1012</t>
+  </si>
+  <si>
+    <t>MY1001</t>
+  </si>
+  <si>
+    <t>FEZ-1123_BB_UL_O</t>
+  </si>
+  <si>
+    <t>FEZ-1259_BB_L_O</t>
+  </si>
+  <si>
+    <t>NAD-1031_BB_UL</t>
+  </si>
+  <si>
+    <t>TAZ-1057_BB_U_O</t>
+  </si>
+  <si>
+    <t>MYA-1001_BB_U_O</t>
+  </si>
+  <si>
+    <t>SFS-1006_BB_U_O</t>
+  </si>
+  <si>
+    <t>FEZ-1208_BB_UL_O</t>
+  </si>
+  <si>
+    <t>MDZ-1010_BB_L_O</t>
+  </si>
+  <si>
+    <t>MYA-1001_BB_L_O</t>
+  </si>
+  <si>
+    <t>SFS-1006_BB_L_O</t>
+  </si>
+  <si>
+    <t>TAH-1013_BB_L_O</t>
+  </si>
+  <si>
+    <t>TAZ-1040_BB_L_O</t>
+  </si>
+  <si>
+    <t>BRK-1044_BB_L_O</t>
+  </si>
+  <si>
+    <t>FEZ-1274_BB_U</t>
+  </si>
+  <si>
+    <t>MEK-1080_BB_U</t>
+  </si>
+  <si>
+    <t>MEK-1080_BB_L</t>
+  </si>
+  <si>
+    <t>NAD-1031-T</t>
+  </si>
+  <si>
+    <t>AHO-1007-T_0</t>
+  </si>
+  <si>
+    <t>FEZ-8007-T_O</t>
+  </si>
+  <si>
+    <t>FEZ-8015-T_O</t>
+  </si>
+  <si>
+    <t>MDZ-1010-T_O</t>
+  </si>
+  <si>
+    <t>MYA-1001-T</t>
+  </si>
+  <si>
+    <t>OUJ-1014-T_O</t>
+  </si>
+  <si>
+    <t>OUJ-1062-T_O</t>
+  </si>
+  <si>
+    <t>BRK-8001-T_O</t>
+  </si>
+  <si>
+    <t>FEZ-1208-T_O</t>
+  </si>
+  <si>
+    <t>FEZ-8004-T_O</t>
+  </si>
+  <si>
+    <t>MEK-1080-T</t>
   </si>
 </sst>
 </file>
@@ -90,12 +141,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,14 +186,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,186 +475,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.4980324074074074</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.46056712962962965</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.3835069444444445</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.3835069444444445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43234</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.47033564814814816</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.52001157407407406</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.50550925925925927</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.45707175925925925</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43234</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.91681712962962969</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.10011574074074074</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.10011574074074074</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.10010416666666666</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.10009259259259258</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.10009259259259258</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.10009259259259258</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.10009259259259258</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43201.024976851855</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43200.960752314815</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43200.960393518515</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43200.949965277781</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43200.946145833332</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43200.936701388891</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43200.917974537035</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43200.899618055555</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43200.834328703706</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43199.756585648145</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43199.665532407409</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.10009259259259258</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.10008101851851851</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43235</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.45734953703703707</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.10006944444444445</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.10005787037037038</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.10005787037037038</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.10005787037037038</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43233</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.10005787037037038</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
